--- a/Data/Processed/LUT.MLID.xlsx
+++ b/Data/Processed/LUT.MLID.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="100" windowWidth="28740" windowHeight="12340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="28740" windowHeight="12340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AWQMS_DEMjoin" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="ULWQS SAP Locations" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$N$449</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15802" uniqueCount="2667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15826" uniqueCount="2687">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -8020,6 +8021,66 @@
   </si>
   <si>
     <t>5997050 Crystal Products Sed Pond.</t>
+  </si>
+  <si>
+    <t>MLID ID</t>
+  </si>
+  <si>
+    <t>Site Description</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Currant Ck At Us6 Xing 1.5mi W Of Goshen</t>
+  </si>
+  <si>
+    <t>Beer Creek/Benjamin Slough</t>
+  </si>
+  <si>
+    <t>Drain At 4000 West 5000 South</t>
+  </si>
+  <si>
+    <t>Hobble Ck At I-15 BDG 3mi S Of Provo</t>
+  </si>
+  <si>
+    <t>Spring Ck At I-15 Frontage Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provo Station 6-WLA </t>
+  </si>
+  <si>
+    <t>Mill Race Creek at I-15 Crossing (2 mi S Provo Courthouse)</t>
+  </si>
+  <si>
+    <t>Provo River At Center St Xing East Of Utah Lake Boat Harbor</t>
+  </si>
+  <si>
+    <t>Lindon Drain At Co Rd Xing Ab Utah Lake</t>
+  </si>
+  <si>
+    <t>Timpanogos WWTP</t>
+  </si>
+  <si>
+    <t>Timpanogos East Tributary</t>
+  </si>
+  <si>
+    <t>American FK Ck 2.5mi S of AM FK City</t>
+  </si>
+  <si>
+    <t>Spring Ck BL Lehi Mill Pond</t>
+  </si>
+  <si>
+    <t>Dry Creek At 145 N (Saratoga Springs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan R At Utah L Outlet U121 Xing </t>
+  </si>
+  <si>
+    <t>Saratoga Springs at Cedar Valley</t>
   </si>
 </sst>
 </file>
@@ -71783,7 +71844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -89081,4 +89142,319 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2668</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>4995310</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C2">
+        <v>39.953690999999999</v>
+      </c>
+      <c r="D2">
+        <v>-111.892132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>4995465</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C3">
+        <v>40.132871999999999</v>
+      </c>
+      <c r="D3">
+        <v>-111.79149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>5919910</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C4">
+        <v>40.143867999999998</v>
+      </c>
+      <c r="D4">
+        <v>-111.749455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4995578</v>
+      </c>
+      <c r="B5" t="s">
+        <v>821</v>
+      </c>
+      <c r="C5">
+        <v>40.157789999999999</v>
+      </c>
+      <c r="D5">
+        <v>-111.730756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4996100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2674</v>
+      </c>
+      <c r="C6">
+        <v>40.184013999999998</v>
+      </c>
+      <c r="D6">
+        <v>-111.647273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4996275</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2675</v>
+      </c>
+      <c r="C7">
+        <v>40.189563</v>
+      </c>
+      <c r="D7">
+        <v>-111.648965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>4996566</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2676</v>
+      </c>
+      <c r="C8">
+        <v>40.201904999999996</v>
+      </c>
+      <c r="D8">
+        <v>-111.654758</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>4996540</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2677</v>
+      </c>
+      <c r="C9">
+        <v>40.203113000000002</v>
+      </c>
+      <c r="D9">
+        <v>-111.656176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>4996680</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2678</v>
+      </c>
+      <c r="C10">
+        <v>40.236941000000002</v>
+      </c>
+      <c r="D10">
+        <v>-111.731881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>4995120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C11">
+        <v>40.331783999999999</v>
+      </c>
+      <c r="D11">
+        <v>-111.763403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>4995038</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2680</v>
+      </c>
+      <c r="C12">
+        <v>40.337125</v>
+      </c>
+      <c r="D12">
+        <v>-111.776971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>4995041</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C13">
+        <v>40.33663</v>
+      </c>
+      <c r="D13">
+        <v>-111.77679999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>4994960</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C14">
+        <v>40.343795999999998</v>
+      </c>
+      <c r="D14">
+        <v>-111.801778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>4994950</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C15">
+        <v>40.363048999999997</v>
+      </c>
+      <c r="D15">
+        <v>-111.83515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>4994804</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2684</v>
+      </c>
+      <c r="C16">
+        <v>40.36504</v>
+      </c>
+      <c r="D16">
+        <v>-111.88393000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>4994790</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C17">
+        <v>40.360957999999997</v>
+      </c>
+      <c r="D17">
+        <v>-111.898661</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>4994792</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C18">
+        <v>40.352421</v>
+      </c>
+      <c r="D18">
+        <v>111.901945</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>4995210</v>
+      </c>
+      <c r="B19" t="s">
+        <v>527</v>
+      </c>
+      <c r="C19">
+        <v>40.265236000000002</v>
+      </c>
+      <c r="D19">
+        <v>-111.742791</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>4995230</v>
+      </c>
+      <c r="B20" t="s">
+        <v>544</v>
+      </c>
+      <c r="C20">
+        <v>40.263092</v>
+      </c>
+      <c r="D20">
+        <v>-111.740668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>4996040</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C21">
+        <v>40.181488000000002</v>
+      </c>
+      <c r="D21">
+        <v>-111.67155200000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>